--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2005.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2005.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.026*"foreign" + 0.021*"exchange" + 0.016*"currency" + 0.016*"account" + 0.016*"import" + 0.014*"control" + 0.013*"yes" + 0.012*"may" + 0.012*"bank" + 0.012*"resident"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"exchange" + 0.002*"control" + 0.002*"currency" + 0.002*"payment" + 0.002*"import" + 0.002*"bank" + 0.002*"account" + 0.002*"may" + 0.002*"yes"</t>
-  </si>
-  <si>
-    <t>0.003*"foreign" + 0.002*"import" + 0.002*"exchange" + 0.002*"currency" + 0.002*"control" + 0.001*"account" + 0.001*"yes" + 0.001*"bank" + 0.001*"export" + 0.001*"nonresident"</t>
-  </si>
-  <si>
-    <t>0.015*"foreign" + 0.009*"exchange" + 0.008*"may" + 0.008*"yes" + 0.007*"control" + 0.007*"currency" + 0.007*"resident" + 0.007*"nonresident" + 0.006*"bank" + 0.006*"payment"</t>
-  </si>
-  <si>
-    <t>0.022*"exchange" + 0.020*"foreign" + 0.016*"control" + 0.014*"resident" + 0.014*"payment" + 0.014*"nonresident" + 0.014*"account" + 0.013*"yes" + 0.013*"currency" + 0.012*"cid"</t>
+    <t>0.039*"may" + 0.027*"bank" + 0.022*"must" + 0.013*"equivalent" + 0.012*"country" + 0.012*"amount" + 0.011*"company" + 0.010*"exceed" + 0.008*"authorize" + 0.008*"resident"</t>
+  </si>
+  <si>
+    <t>0.068*"exchange" + 0.041*"rate" + 0.032*"currency" + 0.029*"arrangement" + 0.023*"trade" + 0.023*"control" + 0.022*"payment" + 0.021*"foreign" + 0.017*"market" + 0.016*"agreement"</t>
+  </si>
+  <si>
+    <t>0.100*"fund" + 0.064*"international" + 0.056*"monetary" + 0.022*"service" + 0.021*"government" + 0.020*"republic" + 0.017*"redistribution" + 0.015*"restriction" + 0.012*"certain" + 0.012*"december"</t>
+  </si>
+  <si>
+    <t>0.065*"foreign" + 0.045*"account" + 0.035*"transaction" + 0.033*"control" + 0.032*"currency" + 0.032*"nonresident" + 0.030*"resident" + 0.029*"exchange" + 0.026*"abroad" + 0.023*"investment"</t>
+  </si>
+  <si>
+    <t>0.079*"import" + 0.062*"yes" + 0.045*"export" + 0.031*"require" + 0.030*"requirement" + 0.028*"license" + 0.020*"subject" + 0.017*"approval" + 0.016*"tax" + 0.015*"effective"</t>
   </si>
 </sst>
 </file>
